--- a/Veenkampen/misc/BADM_Site-General-Info/VK-BADM-Site_General_Info.xlsx
+++ b/Veenkampen/misc/BADM_Site-General-Info/VK-BADM-Site_General_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\Veenkampen_archive\FLUXNET\Veenkampen\misc\BADM_Site-General-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F62BD0-B457-40D2-B78E-5B516F63E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AE7A34-5780-4414-8B13-B8FFA60E1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_General_Info" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="962">
   <si>
     <t>Variable</t>
   </si>
@@ -2905,6 +2905,9 @@
   </si>
   <si>
     <t>All data at the Veenkampen site is collected and documented at UTC time. For the FLUXNET release we have adjusted this time to the local timezone as suggested/required.</t>
+  </si>
+  <si>
+    <t>NL-Vkp</t>
   </si>
 </sst>
 </file>
@@ -2933,7 +2936,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2980,12 +2983,6 @@
         <fgColor rgb="FFCBFFF7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3000,7 +2997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3033,7 +3030,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -3374,7 +3370,9 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3428,8 +3426,8 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14">
-        <v>20250414</v>
+      <c r="D6" s="15">
+        <v>20250425</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3562,7 +3560,15 @@
       <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3608,13 +3614,13 @@
       <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>946</v>
       </c>
     </row>
@@ -3720,7 +3726,9 @@
       <c r="C24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15">
+        <v>51.980933999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3732,7 +3740,9 @@
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="15">
+        <v>5.6188250000000002</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3744,7 +3754,9 @@
       <c r="C26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="15">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3756,7 +3768,9 @@
       <c r="C27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="14" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3796,7 +3810,9 @@
       <c r="C30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="14" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3956,7 +3972,7 @@
       <c r="C42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>946</v>
       </c>
     </row>
@@ -3984,7 +4000,9 @@
       <c r="C44" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="14"/>
+      <c r="D44" s="15">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -3996,7 +4014,9 @@
       <c r="C45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="14"/>
+      <c r="D45" s="15">
+        <v>848</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -4022,7 +4042,9 @@
       <c r="C47" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="14"/>
+      <c r="D47" s="15" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -4034,7 +4056,9 @@
       <c r="C48" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="14"/>
+      <c r="D48" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -4046,7 +4070,9 @@
       <c r="C49" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="14"/>
+      <c r="D49" s="15" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -4058,7 +4084,9 @@
       <c r="C50" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="14"/>
+      <c r="D50" s="15">
+        <v>1500</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -4070,7 +4098,9 @@
       <c r="C51" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="15">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -4130,7 +4160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Veenkampen/misc/BADM_Site-General-Info/VK-BADM-Site_General_Info.xlsx
+++ b/Veenkampen/misc/BADM_Site-General-Info/VK-BADM-Site_General_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\Veenkampen_archive\FLUXNET\Veenkampen\misc\BADM_Site-General-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AE7A34-5780-4414-8B13-B8FFA60E1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B97041-013B-45F4-8948-C5BFEB38C73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3427,7 +3427,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="15">
-        <v>20250425</v>
+        <v>20250521</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
